--- a/target/test-classes/testdata/file.xlsx
+++ b/target/test-classes/testdata/file.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15280" activeTab="2"/>
+    <workbookView windowHeight="15280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="PersonalEmployee" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>NAME</t>
   </si>
@@ -112,6 +113,60 @@
   </si>
   <si>
     <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>Driver's License Number</t>
+  </si>
+  <si>
+    <t>License Expiry Date</t>
+  </si>
+  <si>
+    <t>SSN Number</t>
+  </si>
+  <si>
+    <t>SIN Number</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Nick Name</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>Military Service</t>
+  </si>
+  <si>
+    <t>J234567</t>
+  </si>
+  <si>
+    <t>2023-Nov-12</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Tajik</t>
+  </si>
+  <si>
+    <t>1976-Apr-19</t>
+  </si>
+  <si>
+    <t>Deen</t>
+  </si>
+  <si>
+    <t>click</t>
   </si>
 </sst>
 </file>
@@ -119,15 +174,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -142,6 +211,44 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,9 +262,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,91 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,23 +352,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,25 +362,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,31 +458,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,54 +530,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -419,61 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,11 +562,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,41 +625,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,170 +659,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1202,7 +1289,7 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1220,35 +1307,125 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.78125" defaultRowHeight="29" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="16384" width="14.78125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="D2" s="1">
+        <v>987654321</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
